--- a/data/pca/factorExposure/factorExposure_2017-07-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-07-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02360651472887959</v>
+        <v>-0.007418858927948112</v>
       </c>
       <c r="C2">
-        <v>0.001567113947839268</v>
+        <v>0.04583999857733996</v>
       </c>
       <c r="D2">
-        <v>0.02376864861753956</v>
+        <v>-0.02999704445329701</v>
       </c>
       <c r="E2">
-        <v>-0.01348485214942929</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03366046927458479</v>
+      </c>
+      <c r="F2">
+        <v>0.01019883015247436</v>
+      </c>
+      <c r="G2">
+        <v>0.07533684441634592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01643926384126753</v>
+        <v>-0.05095672852425238</v>
       </c>
       <c r="C3">
-        <v>-0.05434799314416038</v>
+        <v>0.07756581579908868</v>
       </c>
       <c r="D3">
-        <v>0.03554247188834041</v>
+        <v>-0.01598691473468638</v>
       </c>
       <c r="E3">
-        <v>-0.01932357347829766</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.1042759288461141</v>
+      </c>
+      <c r="F3">
+        <v>0.02932037757007197</v>
+      </c>
+      <c r="G3">
+        <v>0.1528967952129028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02345268451846026</v>
+        <v>-0.05881140665990908</v>
       </c>
       <c r="C4">
-        <v>-0.0177877950830506</v>
+        <v>0.06500801075344619</v>
       </c>
       <c r="D4">
-        <v>0.06540973189011048</v>
+        <v>-0.02377840756712062</v>
       </c>
       <c r="E4">
-        <v>0.01253394109902926</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02423992216848319</v>
+      </c>
+      <c r="F4">
+        <v>0.007488044736180712</v>
+      </c>
+      <c r="G4">
+        <v>0.07600151938762696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01539885569092298</v>
+        <v>-0.03893176631203967</v>
       </c>
       <c r="C6">
-        <v>-0.01007694214408567</v>
+        <v>0.05304833425976688</v>
       </c>
       <c r="D6">
-        <v>0.08592287224338073</v>
+        <v>-0.0163845536224332</v>
       </c>
       <c r="E6">
-        <v>0.006904584045683879</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.02558628830455255</v>
+      </c>
+      <c r="F6">
+        <v>0.0122993782358443</v>
+      </c>
+      <c r="G6">
+        <v>0.05584638108161073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01122639139674946</v>
+        <v>-0.02016693373215715</v>
       </c>
       <c r="C7">
-        <v>-0.008800436630107294</v>
+        <v>0.04064099018255394</v>
       </c>
       <c r="D7">
-        <v>0.04052233016074645</v>
+        <v>-0.01301213836429376</v>
       </c>
       <c r="E7">
-        <v>0.05830186507101078</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.005991378368779124</v>
+      </c>
+      <c r="F7">
+        <v>-0.004683272006164079</v>
+      </c>
+      <c r="G7">
+        <v>0.1148883434478376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0001551534270224067</v>
+        <v>-0.001205532102656516</v>
       </c>
       <c r="C8">
-        <v>0.0005993265622092632</v>
+        <v>0.02162700825916863</v>
       </c>
       <c r="D8">
-        <v>0.002747950420317563</v>
+        <v>-0.003760048524987738</v>
       </c>
       <c r="E8">
-        <v>0.007748026834578414</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02277060409086159</v>
+      </c>
+      <c r="F8">
+        <v>0.01680915323993842</v>
+      </c>
+      <c r="G8">
+        <v>0.04661778025167363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01638136744453441</v>
+        <v>-0.03448838554815341</v>
       </c>
       <c r="C9">
-        <v>-0.02001528704000236</v>
+        <v>0.04563685287043003</v>
       </c>
       <c r="D9">
-        <v>0.05062520555563661</v>
+        <v>-0.0162491467373689</v>
       </c>
       <c r="E9">
-        <v>0.001620772476688302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01664930379223372</v>
+      </c>
+      <c r="F9">
+        <v>0.0127994105514622</v>
+      </c>
+      <c r="G9">
+        <v>0.07929543598765705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02039831625336122</v>
+        <v>-0.09505575378539773</v>
       </c>
       <c r="C10">
-        <v>-0.1672467550501508</v>
+        <v>-0.1849116840693976</v>
       </c>
       <c r="D10">
-        <v>-0.1024927044154693</v>
+        <v>0.01642338083902076</v>
       </c>
       <c r="E10">
-        <v>-0.009828889186039169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01469226097028869</v>
+      </c>
+      <c r="F10">
+        <v>-0.02049254099331932</v>
+      </c>
+      <c r="G10">
+        <v>0.05278390303322184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0007932279645946746</v>
+        <v>-0.03447465536449023</v>
       </c>
       <c r="C11">
-        <v>-0.006537172778722739</v>
+        <v>0.05387667890856428</v>
       </c>
       <c r="D11">
-        <v>0.04111323063541639</v>
+        <v>-0.002453728500414078</v>
       </c>
       <c r="E11">
-        <v>-0.006288422040130233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.009426912034745168</v>
+      </c>
+      <c r="F11">
+        <v>0.02135308291923946</v>
+      </c>
+      <c r="G11">
+        <v>0.06214824810227797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006471480180298453</v>
+        <v>-0.03632711585538261</v>
       </c>
       <c r="C12">
-        <v>-0.01304701696277231</v>
+        <v>0.04903012978143335</v>
       </c>
       <c r="D12">
-        <v>0.04782915345537084</v>
+        <v>-0.006199882389247378</v>
       </c>
       <c r="E12">
-        <v>0.004766564588605578</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0002575913927092989</v>
+      </c>
+      <c r="F12">
+        <v>0.001425371980891347</v>
+      </c>
+      <c r="G12">
+        <v>0.05822377707719324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02275847926709427</v>
+        <v>-0.01607486951890292</v>
       </c>
       <c r="C13">
-        <v>-0.01477755446105861</v>
+        <v>0.03691490176932762</v>
       </c>
       <c r="D13">
-        <v>0.008515885756821629</v>
+        <v>-0.02600124853781554</v>
       </c>
       <c r="E13">
-        <v>-0.01236574646782522</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02862795410019578</v>
+      </c>
+      <c r="F13">
+        <v>0.007259959382091534</v>
+      </c>
+      <c r="G13">
+        <v>0.09237139519389748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.00836806373860381</v>
+        <v>-0.008689734656406574</v>
       </c>
       <c r="C14">
-        <v>-0.01500174254720166</v>
+        <v>0.02524195162539857</v>
       </c>
       <c r="D14">
-        <v>0.01004367072113552</v>
+        <v>-0.009033292131356927</v>
       </c>
       <c r="E14">
-        <v>0.007384237447588321</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.00222549659141848</v>
+      </c>
+      <c r="F14">
+        <v>-0.004628930247445726</v>
+      </c>
+      <c r="G14">
+        <v>0.07840842815729654</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001631108979826133</v>
+        <v>-0.03365161449619149</v>
       </c>
       <c r="C16">
-        <v>-0.01212917653033226</v>
+        <v>0.04826457571322354</v>
       </c>
       <c r="D16">
-        <v>0.04785201867257331</v>
+        <v>-0.001992522398735457</v>
       </c>
       <c r="E16">
-        <v>0.003813818837704374</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.007921193663482165</v>
+      </c>
+      <c r="F16">
+        <v>0.002781082048777311</v>
+      </c>
+      <c r="G16">
+        <v>0.06579606038962674</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01469933346639971</v>
+        <v>-0.0231063634611939</v>
       </c>
       <c r="C19">
-        <v>-0.02421125770620143</v>
+        <v>0.04974406912061165</v>
       </c>
       <c r="D19">
-        <v>0.01577170038150404</v>
+        <v>-0.01778192420465411</v>
       </c>
       <c r="E19">
-        <v>0.003981952007821005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06396044715437764</v>
+      </c>
+      <c r="F19">
+        <v>0.0201224137979536</v>
+      </c>
+      <c r="G19">
+        <v>0.1074542003634105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01080452048580157</v>
+        <v>-0.01488250289849621</v>
       </c>
       <c r="C20">
-        <v>-0.008060515256251422</v>
+        <v>0.03500718156428725</v>
       </c>
       <c r="D20">
-        <v>0.01349910909446115</v>
+        <v>-0.01353599972663686</v>
       </c>
       <c r="E20">
-        <v>-0.01167242004629259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.0274469865853969</v>
+      </c>
+      <c r="F20">
+        <v>-0.004697382362316722</v>
+      </c>
+      <c r="G20">
+        <v>0.07818177009851934</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01479650539972286</v>
+        <v>-0.0140498179272694</v>
       </c>
       <c r="C21">
-        <v>-0.02037033187319007</v>
+        <v>0.03835886181414039</v>
       </c>
       <c r="D21">
-        <v>0.02365747070072234</v>
+        <v>-0.0177205579122054</v>
       </c>
       <c r="E21">
-        <v>0.009237586803025714</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03910668738469613</v>
+      </c>
+      <c r="F21">
+        <v>0.0002690496292374109</v>
+      </c>
+      <c r="G21">
+        <v>0.1117404547577164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004604713123278012</v>
+        <v>-0.02758899157882947</v>
       </c>
       <c r="C24">
-        <v>-0.0007904895723297562</v>
+        <v>0.05107699497009101</v>
       </c>
       <c r="D24">
-        <v>0.04400487977183833</v>
+        <v>-0.007330642710487016</v>
       </c>
       <c r="E24">
-        <v>-0.0004340677531993793</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.005334091424162735</v>
+      </c>
+      <c r="F24">
+        <v>0.01420122126489629</v>
+      </c>
+      <c r="G24">
+        <v>0.06659526192999346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01225857591369003</v>
+        <v>-0.04203826412006009</v>
       </c>
       <c r="C25">
-        <v>-0.01738992512565351</v>
+        <v>0.05825904129094054</v>
       </c>
       <c r="D25">
-        <v>0.04599570149876015</v>
+        <v>-0.01142922824859258</v>
       </c>
       <c r="E25">
-        <v>-0.0007275787428480446</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.0006074853068871701</v>
+      </c>
+      <c r="F25">
+        <v>0.009941786916826716</v>
+      </c>
+      <c r="G25">
+        <v>0.07259438166844297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02349636036881928</v>
+        <v>-0.01565787587902094</v>
       </c>
       <c r="C26">
-        <v>-0.01220671140397307</v>
+        <v>0.008898201782905605</v>
       </c>
       <c r="D26">
-        <v>-0.002043640579063865</v>
+        <v>-0.02345769250147195</v>
       </c>
       <c r="E26">
-        <v>0.007120552600841414</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.002812177915777573</v>
+      </c>
+      <c r="F26">
+        <v>-0.007264564426378178</v>
+      </c>
+      <c r="G26">
+        <v>0.06338491517412449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.04266482608788021</v>
+        <v>-0.1191619987888997</v>
       </c>
       <c r="C28">
-        <v>-0.2369840473680718</v>
+        <v>-0.2356552510023511</v>
       </c>
       <c r="D28">
-        <v>-0.1559586188577669</v>
+        <v>0.00691140986058203</v>
       </c>
       <c r="E28">
-        <v>0.01134590899524449</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.00371287283538783</v>
+      </c>
+      <c r="F28">
+        <v>-0.01796254459117969</v>
+      </c>
+      <c r="G28">
+        <v>0.07074399714153924</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.008565747434015602</v>
+        <v>-0.01096316306330484</v>
       </c>
       <c r="C29">
-        <v>-0.01861721565659152</v>
+        <v>0.01986390643691801</v>
       </c>
       <c r="D29">
-        <v>0.009711586829446986</v>
+        <v>-0.007836364492199455</v>
       </c>
       <c r="E29">
-        <v>0.003170867331332262</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.004186476745084067</v>
+      </c>
+      <c r="F29">
+        <v>-0.01462613284037669</v>
+      </c>
+      <c r="G29">
+        <v>0.07059878286072176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02397332130243516</v>
+        <v>-0.04379791032391116</v>
       </c>
       <c r="C30">
-        <v>-0.002881453240715467</v>
+        <v>0.06543377402888974</v>
       </c>
       <c r="D30">
-        <v>0.06212006584983242</v>
+        <v>-0.02869687141744158</v>
       </c>
       <c r="E30">
-        <v>-0.0491310722447229</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05202551833413528</v>
+      </c>
+      <c r="F30">
+        <v>0.04839374512168674</v>
+      </c>
+      <c r="G30">
+        <v>0.0807863008386754</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01000850060035939</v>
+        <v>-0.05350370199409764</v>
       </c>
       <c r="C31">
-        <v>-0.04335290326965437</v>
+        <v>0.03551507986520639</v>
       </c>
       <c r="D31">
-        <v>0.04342908637301872</v>
+        <v>-0.003154730953898381</v>
       </c>
       <c r="E31">
-        <v>0.009322949804134664</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.005769510139230519</v>
+      </c>
+      <c r="F31">
+        <v>-0.039908528186941</v>
+      </c>
+      <c r="G31">
+        <v>0.06679345143363133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.005723445135931799</v>
+        <v>0.0009523727780606327</v>
       </c>
       <c r="C32">
-        <v>-0.02008797063410026</v>
+        <v>0.02699129042577162</v>
       </c>
       <c r="D32">
-        <v>-0.01023157341281433</v>
+        <v>0.003801793371689408</v>
       </c>
       <c r="E32">
-        <v>0.05067183918628013</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01614123565179411</v>
+      </c>
+      <c r="F32">
+        <v>0.04242945869119356</v>
+      </c>
+      <c r="G32">
+        <v>0.09112929763035997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01420623008640561</v>
+        <v>-0.02786623836103891</v>
       </c>
       <c r="C33">
-        <v>-0.02677493416708411</v>
+        <v>0.04887771693550896</v>
       </c>
       <c r="D33">
-        <v>0.02727913865764951</v>
+        <v>-0.01520557066695969</v>
       </c>
       <c r="E33">
-        <v>-0.03073353797291893</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03343693575409466</v>
+      </c>
+      <c r="F33">
+        <v>0.01677226246996592</v>
+      </c>
+      <c r="G33">
+        <v>0.1045548880138761</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.003850786439144169</v>
+        <v>-0.0395562883459097</v>
       </c>
       <c r="C34">
-        <v>-0.0184687593091594</v>
+        <v>0.0625807045834039</v>
       </c>
       <c r="D34">
-        <v>0.05133901116310501</v>
+        <v>0.004295344329589117</v>
       </c>
       <c r="E34">
-        <v>0.007944957088541373</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0003737110111489398</v>
+      </c>
+      <c r="F34">
+        <v>0.02149489918922226</v>
+      </c>
+      <c r="G34">
+        <v>0.07382588776728848</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01322178819284377</v>
+        <v>-0.01511242142178054</v>
       </c>
       <c r="C36">
-        <v>-0.02154943304278978</v>
+        <v>0.009160829741067734</v>
       </c>
       <c r="D36">
-        <v>0.001122538445032905</v>
+        <v>-0.01171960903328999</v>
       </c>
       <c r="E36">
-        <v>0.002767676534118657</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.001857382409084614</v>
+      </c>
+      <c r="F36">
+        <v>-0.007738276269493023</v>
+      </c>
+      <c r="G36">
+        <v>0.05950473847931558</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.002963776060355898</v>
+        <v>-0.03334269600970149</v>
       </c>
       <c r="C38">
-        <v>-0.03707441222516301</v>
+        <v>0.02833390443352173</v>
       </c>
       <c r="D38">
-        <v>0.03442885981739002</v>
+        <v>0.007898196041169562</v>
       </c>
       <c r="E38">
-        <v>0.004768453938700061</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.001573378098465142</v>
+      </c>
+      <c r="F38">
+        <v>-0.01568857301258783</v>
+      </c>
+      <c r="G38">
+        <v>0.0647250223651482</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.004749673453594186</v>
+        <v>-0.03547956433746134</v>
       </c>
       <c r="C39">
-        <v>0.02003096889700499</v>
+        <v>0.08073706726102681</v>
       </c>
       <c r="D39">
-        <v>0.0875223547749731</v>
+        <v>-0.01193731940849376</v>
       </c>
       <c r="E39">
-        <v>-0.01415317091965818</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02117667209257748</v>
+      </c>
+      <c r="F39">
+        <v>0.02654647245781069</v>
+      </c>
+      <c r="G39">
+        <v>0.06348138323404942</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01281463776555493</v>
+        <v>-0.01804341332552821</v>
       </c>
       <c r="C40">
-        <v>-0.02179689636281535</v>
+        <v>0.0334595620427612</v>
       </c>
       <c r="D40">
-        <v>0.02875886011474756</v>
+        <v>-0.0139555098088414</v>
       </c>
       <c r="E40">
-        <v>0.001828137250810404</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02337159202516425</v>
+      </c>
+      <c r="F40">
+        <v>0.01198749578844101</v>
+      </c>
+      <c r="G40">
+        <v>0.07268307132694976</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.006455552136690782</v>
+        <v>-0.01752856815045094</v>
       </c>
       <c r="C41">
-        <v>-0.02225224118729746</v>
+        <v>0.001817345155915627</v>
       </c>
       <c r="D41">
-        <v>-0.01070522373071841</v>
+        <v>-0.003806752064506664</v>
       </c>
       <c r="E41">
-        <v>0.00289169541676615</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0002017849383504634</v>
+      </c>
+      <c r="F41">
+        <v>-0.01248446747825154</v>
+      </c>
+      <c r="G41">
+        <v>0.0476454508279312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09535930790473225</v>
+        <v>-0.01126495068984267</v>
       </c>
       <c r="C42">
-        <v>0.009098071598711229</v>
+        <v>0.03905911863535277</v>
       </c>
       <c r="D42">
-        <v>0.2691888421719145</v>
+        <v>-0.09390980974674565</v>
       </c>
       <c r="E42">
-        <v>-0.4285959203622153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.02897174904306577</v>
+      </c>
+      <c r="F42">
+        <v>-0.03915694550124393</v>
+      </c>
+      <c r="G42">
+        <v>-0.1634081271592127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.007707777729105698</v>
+        <v>-0.03324208815094172</v>
       </c>
       <c r="C43">
-        <v>-0.02645881936558998</v>
+        <v>0.01452448639091075</v>
       </c>
       <c r="D43">
-        <v>-0.01140944815824107</v>
+        <v>-0.005291971170799595</v>
       </c>
       <c r="E43">
-        <v>-0.003171877009294641</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01233042549594501</v>
+      </c>
+      <c r="F43">
+        <v>-0.005035331451190098</v>
+      </c>
+      <c r="G43">
+        <v>0.07017763738763463</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003182422435594908</v>
+        <v>-0.01517508322645367</v>
       </c>
       <c r="C44">
-        <v>-0.006560321678649784</v>
+        <v>0.04973592053544891</v>
       </c>
       <c r="D44">
-        <v>0.02614175085916642</v>
+        <v>-0.006276831097747096</v>
       </c>
       <c r="E44">
-        <v>0.005848831782134347</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01857052078089481</v>
+      </c>
+      <c r="F44">
+        <v>-0.00465605394103919</v>
+      </c>
+      <c r="G44">
+        <v>0.0863856235529403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01130494948615395</v>
+        <v>-0.007888121302561651</v>
       </c>
       <c r="C46">
-        <v>-0.01578397105175099</v>
+        <v>0.01621215965385228</v>
       </c>
       <c r="D46">
-        <v>0.008995327921104206</v>
+        <v>-0.0117054789176634</v>
       </c>
       <c r="E46">
-        <v>-0.001634053958637027</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.00254736919262996</v>
+      </c>
+      <c r="F46">
+        <v>-0.01721541008443718</v>
+      </c>
+      <c r="G46">
+        <v>0.07133662386571975</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.004839032039340673</v>
+        <v>-0.07915580072521315</v>
       </c>
       <c r="C47">
-        <v>-0.05496211003802005</v>
+        <v>0.06375464396297502</v>
       </c>
       <c r="D47">
-        <v>0.06475992202020259</v>
+        <v>0.005455152998535481</v>
       </c>
       <c r="E47">
-        <v>0.004786563612213039</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01001414731201974</v>
+      </c>
+      <c r="F47">
+        <v>-0.05546645268144326</v>
+      </c>
+      <c r="G47">
+        <v>0.0649087593947295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.004150055218160115</v>
+        <v>-0.02084504494383147</v>
       </c>
       <c r="C48">
-        <v>-0.02674793368926959</v>
+        <v>0.01089667381106405</v>
       </c>
       <c r="D48">
-        <v>0.0133564582703605</v>
+        <v>-0.001039581317544703</v>
       </c>
       <c r="E48">
-        <v>0.001582479861222835</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002017796638866054</v>
+      </c>
+      <c r="F48">
+        <v>-0.02092727047601991</v>
+      </c>
+      <c r="G48">
+        <v>0.06694237923651926</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.00678118903790863</v>
+        <v>-0.07752262386142557</v>
       </c>
       <c r="C50">
-        <v>-0.05627899333279</v>
+        <v>0.06737124161255134</v>
       </c>
       <c r="D50">
-        <v>0.0673243821775774</v>
+        <v>0.003261245978684034</v>
       </c>
       <c r="E50">
-        <v>0.03178598992624645</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01116552177139721</v>
+      </c>
+      <c r="F50">
+        <v>-0.05943583267457576</v>
+      </c>
+      <c r="G50">
+        <v>0.08201438240556878</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007402941819648541</v>
+        <v>-0.01445476917190172</v>
       </c>
       <c r="C51">
-        <v>-0.01621823549990664</v>
+        <v>0.03277756931101345</v>
       </c>
       <c r="D51">
-        <v>-0.001302391160519815</v>
+        <v>-0.009848515719636424</v>
       </c>
       <c r="E51">
-        <v>0.003865840918392522</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01625240077603311</v>
+      </c>
+      <c r="F51">
+        <v>0.02372844754128695</v>
+      </c>
+      <c r="G51">
+        <v>0.1025223766805236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.007676697691571138</v>
+        <v>-0.08383399859616823</v>
       </c>
       <c r="C53">
-        <v>-0.0655952197342797</v>
+        <v>0.08004749967762065</v>
       </c>
       <c r="D53">
-        <v>0.1219926089195032</v>
+        <v>0.004630879746777826</v>
       </c>
       <c r="E53">
-        <v>0.01038892100630387</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02999601798278616</v>
+      </c>
+      <c r="F53">
+        <v>-0.06009279360628763</v>
+      </c>
+      <c r="G53">
+        <v>0.0565149518604457</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.001682099608348883</v>
+        <v>-0.03126034516194211</v>
       </c>
       <c r="C54">
-        <v>-0.03639384559297875</v>
+        <v>0.01524744259011892</v>
       </c>
       <c r="D54">
-        <v>0.0008387345940349708</v>
+        <v>0.002260725948550086</v>
       </c>
       <c r="E54">
-        <v>0.002440269553686211</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.00575342766157894</v>
+      </c>
+      <c r="F54">
+        <v>-0.006864235297099693</v>
+      </c>
+      <c r="G54">
+        <v>0.07439460150857204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.003898752438856635</v>
+        <v>-0.07350417995565219</v>
       </c>
       <c r="C55">
-        <v>-0.04426215239482965</v>
+        <v>0.06726796420769461</v>
       </c>
       <c r="D55">
-        <v>0.1040168725694915</v>
+        <v>0.005644055237478286</v>
       </c>
       <c r="E55">
-        <v>-0.002632413702629546</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02571978896237214</v>
+      </c>
+      <c r="F55">
+        <v>-0.05890368530312528</v>
+      </c>
+      <c r="G55">
+        <v>0.03668255522548061</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.006914578675890086</v>
+        <v>-0.1414979946342757</v>
       </c>
       <c r="C56">
-        <v>-0.09193837688705965</v>
+        <v>0.1060898464974242</v>
       </c>
       <c r="D56">
-        <v>0.1573143560080301</v>
+        <v>0.01296330957491788</v>
       </c>
       <c r="E56">
-        <v>-0.001461877623634907</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.0346143259644624</v>
+      </c>
+      <c r="F56">
+        <v>-0.0787652651552474</v>
+      </c>
+      <c r="G56">
+        <v>0.01423418873665612</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02394639453655634</v>
+        <v>-0.007415417206284181</v>
       </c>
       <c r="C57">
-        <v>-0.01446721030591338</v>
+        <v>0.0089144447336555</v>
       </c>
       <c r="D57">
-        <v>0.04033100480515397</v>
+        <v>-0.02353773371502552</v>
       </c>
       <c r="E57">
-        <v>-0.003676511427504596</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02437063409384766</v>
+      </c>
+      <c r="F57">
+        <v>0.00947816997855987</v>
+      </c>
+      <c r="G57">
+        <v>0.02839999633086496</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01661234846432218</v>
+        <v>-0.06899876359531362</v>
       </c>
       <c r="C58">
-        <v>-0.08652130990540476</v>
+        <v>0.04052376239022758</v>
       </c>
       <c r="D58">
-        <v>0.1273854939408801</v>
+        <v>-0.02554255759651206</v>
       </c>
       <c r="E58">
-        <v>-0.41361184672108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.934540271900837</v>
+      </c>
+      <c r="F58">
+        <v>-0.2438307498813864</v>
+      </c>
+      <c r="G58">
+        <v>-0.09855564330225908</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.04031375342423581</v>
+        <v>-0.1568123250775935</v>
       </c>
       <c r="C59">
-        <v>-0.2555547577495672</v>
+        <v>-0.208494251505191</v>
       </c>
       <c r="D59">
-        <v>-0.1586213452449676</v>
+        <v>0.01284574641436675</v>
       </c>
       <c r="E59">
-        <v>0.006388826962708824</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.0142145433637276</v>
+      </c>
+      <c r="F59">
+        <v>0.003999870903975879</v>
+      </c>
+      <c r="G59">
+        <v>0.03913183944888884</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.04088708333833983</v>
+        <v>-0.2872291272405997</v>
       </c>
       <c r="C60">
-        <v>-0.1602226858295329</v>
+        <v>0.09663306157573145</v>
       </c>
       <c r="D60">
-        <v>0.07586070054054081</v>
+        <v>-0.0134429684085395</v>
       </c>
       <c r="E60">
-        <v>-0.00374888207556033</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.001906651896007588</v>
+      </c>
+      <c r="F60">
+        <v>0.3535764139261008</v>
+      </c>
+      <c r="G60">
+        <v>-0.1345229452238828</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003146871805911619</v>
+        <v>-0.03681215993053315</v>
       </c>
       <c r="C61">
-        <v>-0.006617122555435155</v>
+        <v>0.06638868225397261</v>
       </c>
       <c r="D61">
-        <v>0.06269753385866825</v>
+        <v>-0.005350694062065326</v>
       </c>
       <c r="E61">
-        <v>-0.0004351126547981828</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01350824136575858</v>
+      </c>
+      <c r="F61">
+        <v>0.01510960751407958</v>
+      </c>
+      <c r="G61">
+        <v>0.06430099442948484</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007780725565043253</v>
+        <v>-0.01443774914516998</v>
       </c>
       <c r="C63">
-        <v>-0.008353595267093573</v>
+        <v>0.02924478895332251</v>
       </c>
       <c r="D63">
-        <v>0.01170895672180873</v>
+        <v>-0.008052188134669463</v>
       </c>
       <c r="E63">
-        <v>0.008435141537856433</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.001833774927029213</v>
+      </c>
+      <c r="F63">
+        <v>-0.01745878449141478</v>
+      </c>
+      <c r="G63">
+        <v>0.07052814602577995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.008996185919009395</v>
+        <v>-0.04680713532772031</v>
       </c>
       <c r="C64">
-        <v>-0.03000823964078526</v>
+        <v>0.0467356030918774</v>
       </c>
       <c r="D64">
-        <v>0.06077522782975834</v>
+        <v>-0.006328202357562473</v>
       </c>
       <c r="E64">
-        <v>-0.01643721244468705</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.002029238509447379</v>
+      </c>
+      <c r="F64">
+        <v>0.003972825438897133</v>
+      </c>
+      <c r="G64">
+        <v>0.06094766998975455</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01763342981685269</v>
+        <v>-0.07920538278657255</v>
       </c>
       <c r="C65">
-        <v>-0.01015807422739797</v>
+        <v>0.05857155907583334</v>
       </c>
       <c r="D65">
-        <v>0.1025176636095778</v>
+        <v>-0.0161483676894338</v>
       </c>
       <c r="E65">
-        <v>0.01066963706963939</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.02680454437005055</v>
+      </c>
+      <c r="F65">
+        <v>0.03055769989499031</v>
+      </c>
+      <c r="G65">
+        <v>0.02417264360173997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.004638249367454734</v>
+        <v>-0.05147771102203788</v>
       </c>
       <c r="C66">
-        <v>0.01492791023310093</v>
+        <v>0.1117731352310667</v>
       </c>
       <c r="D66">
-        <v>0.1129197627493146</v>
+        <v>-0.01204508289435677</v>
       </c>
       <c r="E66">
-        <v>-0.01165941424864369</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.0294014217288464</v>
+      </c>
+      <c r="F66">
+        <v>0.035215921348046</v>
+      </c>
+      <c r="G66">
+        <v>0.07346959461385436</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.003754610551699531</v>
+        <v>-0.05552054301082308</v>
       </c>
       <c r="C67">
-        <v>-0.05888371633338525</v>
+        <v>0.03184412266566921</v>
       </c>
       <c r="D67">
-        <v>0.03934235329227488</v>
+        <v>0.005968322667887945</v>
       </c>
       <c r="E67">
-        <v>0.006283487810516205</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.004457338995603364</v>
+      </c>
+      <c r="F67">
+        <v>-0.01600133101854415</v>
+      </c>
+      <c r="G67">
+        <v>0.06051711764207662</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05672026917862241</v>
+        <v>-0.1436387634239766</v>
       </c>
       <c r="C68">
-        <v>-0.2311307004473283</v>
+        <v>-0.2732857383831286</v>
       </c>
       <c r="D68">
-        <v>-0.1622861706471111</v>
+        <v>-0.004801196070622358</v>
       </c>
       <c r="E68">
-        <v>-0.01264348852264586</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01088950539687266</v>
+      </c>
+      <c r="F68">
+        <v>-0.02942487055416093</v>
+      </c>
+      <c r="G68">
+        <v>0.02593042129473963</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0006115427730570119</v>
+        <v>-0.08213706031703524</v>
       </c>
       <c r="C69">
-        <v>-0.04298558501573162</v>
+        <v>0.06692984726721328</v>
       </c>
       <c r="D69">
-        <v>0.06580226195921833</v>
+        <v>0.009512447618001803</v>
       </c>
       <c r="E69">
-        <v>0.00872549208629134</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02671772503280668</v>
+      </c>
+      <c r="F69">
+        <v>-0.03939695561195156</v>
+      </c>
+      <c r="G69">
+        <v>0.06798594583612307</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.04257465207775601</v>
+        <v>-0.1328189642868075</v>
       </c>
       <c r="C71">
-        <v>-0.2060023844041016</v>
+        <v>-0.2314935975447318</v>
       </c>
       <c r="D71">
-        <v>-0.1307123810013595</v>
+        <v>0.003962433864429267</v>
       </c>
       <c r="E71">
-        <v>-0.006101549033102559</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02807092555774892</v>
+      </c>
+      <c r="F71">
+        <v>-0.01390343989350314</v>
+      </c>
+      <c r="G71">
+        <v>0.04988926367965279</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>9.857269803235058e-05</v>
+        <v>-0.08737657386135629</v>
       </c>
       <c r="C72">
-        <v>-0.04549166960772598</v>
+        <v>0.07078301307867296</v>
       </c>
       <c r="D72">
-        <v>0.1249316357475076</v>
+        <v>0.008038280583970056</v>
       </c>
       <c r="E72">
-        <v>0.004061313831898462</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.001809732984165057</v>
+      </c>
+      <c r="F72">
+        <v>0.04437485223959859</v>
+      </c>
+      <c r="G72">
+        <v>0.05465123744840341</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.0542322234934542</v>
+        <v>-0.3828958516285014</v>
       </c>
       <c r="C73">
-        <v>-0.1835027014333009</v>
+        <v>0.1128353626263095</v>
       </c>
       <c r="D73">
-        <v>0.1499475968822633</v>
+        <v>-0.02320154157283114</v>
       </c>
       <c r="E73">
-        <v>-0.0442054496308004</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06884101700648558</v>
+      </c>
+      <c r="F73">
+        <v>0.5672489148400873</v>
+      </c>
+      <c r="G73">
+        <v>-0.2136663841432404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.004064106064166462</v>
+        <v>-0.1099737494554046</v>
       </c>
       <c r="C74">
-        <v>-0.07932680090541407</v>
+        <v>0.1102010109148784</v>
       </c>
       <c r="D74">
-        <v>0.1604608541890647</v>
+        <v>0.0100737006322025</v>
       </c>
       <c r="E74">
-        <v>-0.0119326079008158</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01378525022612007</v>
+      </c>
+      <c r="F74">
+        <v>-0.07342970562419381</v>
+      </c>
+      <c r="G74">
+        <v>0.06149970694958626</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.01372004608422632</v>
+        <v>-0.2511309048233419</v>
       </c>
       <c r="C75">
-        <v>-0.1859447413335871</v>
+        <v>0.1462395993650684</v>
       </c>
       <c r="D75">
-        <v>0.2864574622542046</v>
+        <v>0.03061152061462823</v>
       </c>
       <c r="E75">
-        <v>-0.01612367053482161</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05766163793942473</v>
+      </c>
+      <c r="F75">
+        <v>-0.1794519611651557</v>
+      </c>
+      <c r="G75">
+        <v>-0.04949377426506182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.0008618880983820903</v>
+        <v>-0.1242883716963426</v>
       </c>
       <c r="C76">
-        <v>-0.1157335434540754</v>
+        <v>0.1112177134994859</v>
       </c>
       <c r="D76">
-        <v>0.2217494201306447</v>
+        <v>0.02038758387510307</v>
       </c>
       <c r="E76">
-        <v>0.02914457883407116</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04220523596032992</v>
+      </c>
+      <c r="F76">
+        <v>-0.1136786002044695</v>
+      </c>
+      <c r="G76">
+        <v>0.03953016589077618</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.0133663210329682</v>
+        <v>-0.06659944931668665</v>
       </c>
       <c r="C77">
-        <v>-0.02133304441978215</v>
+        <v>0.05801133131498409</v>
       </c>
       <c r="D77">
-        <v>0.04468479733826859</v>
+        <v>-0.01264630026739965</v>
       </c>
       <c r="E77">
-        <v>-0.02139719288444018</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.05159890194284263</v>
+      </c>
+      <c r="F77">
+        <v>0.01365431948608398</v>
+      </c>
+      <c r="G77">
+        <v>0.06326625579377679</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.005112424714199022</v>
+        <v>-0.04478251226823289</v>
       </c>
       <c r="C78">
-        <v>-0.01570520959476857</v>
+        <v>0.04923728048904542</v>
       </c>
       <c r="D78">
-        <v>0.05948386976039444</v>
+        <v>-0.005506502875456048</v>
       </c>
       <c r="E78">
-        <v>-0.009684419363095192</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02326281801592285</v>
+      </c>
+      <c r="F78">
+        <v>0.03714054981972583</v>
+      </c>
+      <c r="G78">
+        <v>0.06901693381855097</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01649760228280401</v>
+        <v>-0.05863012974302338</v>
       </c>
       <c r="C80">
-        <v>-0.09382434385084111</v>
+        <v>0.06896908411492092</v>
       </c>
       <c r="D80">
-        <v>0.2411162382535297</v>
+        <v>-0.0098025572120125</v>
       </c>
       <c r="E80">
-        <v>0.7756373994191844</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02772131554415542</v>
+      </c>
+      <c r="F80">
+        <v>0.006282485902559891</v>
+      </c>
+      <c r="G80">
+        <v>0.6597214109629002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.008378079326649992</v>
+        <v>-0.1436094892882364</v>
       </c>
       <c r="C81">
-        <v>-0.1098811316257908</v>
+        <v>0.08990679536541082</v>
       </c>
       <c r="D81">
-        <v>0.1650191495494005</v>
+        <v>0.01590504460063617</v>
       </c>
       <c r="E81">
-        <v>0.01062903101565355</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03667318808147405</v>
+      </c>
+      <c r="F81">
+        <v>-0.1281992786923719</v>
+      </c>
+      <c r="G81">
+        <v>0.02020135783056509</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1228002869411164</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.06291689859210822</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.007253500951328911</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08584758431180267</v>
+      </c>
+      <c r="F82">
+        <v>-0.02378835529063648</v>
+      </c>
+      <c r="G82">
+        <v>0.02668069334230845</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.007160316860140336</v>
+        <v>-0.0351550880865366</v>
       </c>
       <c r="C83">
-        <v>-0.02141821431023444</v>
+        <v>0.02422032150346776</v>
       </c>
       <c r="D83">
-        <v>0.01980418550035496</v>
+        <v>-0.005578515675239297</v>
       </c>
       <c r="E83">
-        <v>-0.001477911945046393</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02822843209706819</v>
+      </c>
+      <c r="F83">
+        <v>0.03426164528894903</v>
+      </c>
+      <c r="G83">
+        <v>0.04567854233069919</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01962071833008168</v>
+        <v>-0.2184361770382864</v>
       </c>
       <c r="C85">
-        <v>-0.1450011330716306</v>
+        <v>0.1411214937172844</v>
       </c>
       <c r="D85">
-        <v>0.2589471720329674</v>
+        <v>0.01828123965749667</v>
       </c>
       <c r="E85">
-        <v>-0.01047988763043048</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09959973636303933</v>
+      </c>
+      <c r="F85">
+        <v>-0.1421635575546572</v>
+      </c>
+      <c r="G85">
+        <v>-0.09971978858877011</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.009501101001496624</v>
+        <v>-0.01476667040780999</v>
       </c>
       <c r="C86">
-        <v>-0.03205535639303633</v>
+        <v>0.02260195340757097</v>
       </c>
       <c r="D86">
-        <v>0.006856813260077523</v>
+        <v>-0.01149447724055589</v>
       </c>
       <c r="E86">
-        <v>-0.03954718480078834</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.0455353616528569</v>
+      </c>
+      <c r="F86">
+        <v>0.04198199416138715</v>
+      </c>
+      <c r="G86">
+        <v>0.1398960089363138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.008505276511567529</v>
+        <v>-0.02225498939520115</v>
       </c>
       <c r="C87">
-        <v>-0.01349033665942831</v>
+        <v>0.02735410450379577</v>
       </c>
       <c r="D87">
-        <v>0.0414281188817343</v>
+        <v>-0.01201984752095217</v>
       </c>
       <c r="E87">
-        <v>-0.01560703004414043</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08631514371985326</v>
+      </c>
+      <c r="F87">
+        <v>0.0218578880922218</v>
+      </c>
+      <c r="G87">
+        <v>0.09296753487417699</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02822478367509592</v>
+        <v>-0.09162423396870292</v>
       </c>
       <c r="C88">
-        <v>-0.03549822759268963</v>
+        <v>0.06713926913019935</v>
       </c>
       <c r="D88">
-        <v>0.03955231019816529</v>
+        <v>-0.02272932459502472</v>
       </c>
       <c r="E88">
-        <v>0.002051174613917467</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01158760138933534</v>
+      </c>
+      <c r="F88">
+        <v>-0.02517347846436659</v>
+      </c>
+      <c r="G88">
+        <v>0.06053921941512571</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07949396994585209</v>
+        <v>-0.2219854638070567</v>
       </c>
       <c r="C89">
-        <v>-0.374256752440481</v>
+        <v>-0.3742812042785607</v>
       </c>
       <c r="D89">
-        <v>-0.2357638756443294</v>
+        <v>0.002623512447096661</v>
       </c>
       <c r="E89">
-        <v>0.02147988874261103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02193755338579456</v>
+      </c>
+      <c r="F89">
+        <v>-0.02305483062577309</v>
+      </c>
+      <c r="G89">
+        <v>0.04003558577114323</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06113547274465156</v>
+        <v>-0.1989188279198933</v>
       </c>
       <c r="C90">
-        <v>-0.291164831680879</v>
+        <v>-0.3260990187878902</v>
       </c>
       <c r="D90">
-        <v>-0.211806436467361</v>
+        <v>0.006765799244245828</v>
       </c>
       <c r="E90">
-        <v>-0.01062248133533349</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01283889414834445</v>
+      </c>
+      <c r="F90">
+        <v>-0.04885944741652105</v>
+      </c>
+      <c r="G90">
+        <v>0.01871466351215188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.00885015279169757</v>
+        <v>-0.1933612186464727</v>
       </c>
       <c r="C91">
-        <v>-0.1568333251517203</v>
+        <v>0.1386076547812341</v>
       </c>
       <c r="D91">
-        <v>0.2275911713401599</v>
+        <v>0.02349119270499491</v>
       </c>
       <c r="E91">
-        <v>0.01393797818601941</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06958051257090624</v>
+      </c>
+      <c r="F91">
+        <v>-0.1516369090979046</v>
+      </c>
+      <c r="G91">
+        <v>0.01527282560362265</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.02793535628061656</v>
+        <v>-0.1965846116777803</v>
       </c>
       <c r="C92">
-        <v>-0.3037063233745191</v>
+        <v>-0.2631271057730609</v>
       </c>
       <c r="D92">
-        <v>-0.1017758512347506</v>
+        <v>0.04130191948961971</v>
       </c>
       <c r="E92">
-        <v>-0.01553406484909618</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.01984225791167607</v>
+      </c>
+      <c r="F92">
+        <v>-0.06389222109421218</v>
+      </c>
+      <c r="G92">
+        <v>0.1251586690123538</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.05856324506836406</v>
+        <v>-0.2247577844983621</v>
       </c>
       <c r="C93">
-        <v>-0.3146633675409099</v>
+        <v>-0.3250627084978434</v>
       </c>
       <c r="D93">
-        <v>-0.1925458145555315</v>
+        <v>0.01323561329387854</v>
       </c>
       <c r="E93">
-        <v>-0.03648756831778045</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.001840369388459622</v>
+      </c>
+      <c r="F93">
+        <v>-0.03418468576180454</v>
+      </c>
+      <c r="G93">
+        <v>0.02285754329139913</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.03345149761729233</v>
+        <v>-0.3175492500699025</v>
       </c>
       <c r="C94">
-        <v>-0.1878180709628516</v>
+        <v>0.170896054018251</v>
       </c>
       <c r="D94">
-        <v>0.2506901744512871</v>
+        <v>0.01835730434369029</v>
       </c>
       <c r="E94">
-        <v>-0.01443088857187569</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1713515446420903</v>
+      </c>
+      <c r="F94">
+        <v>-0.4791782441666689</v>
+      </c>
+      <c r="G94">
+        <v>-0.2948095547683097</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.004524790015784797</v>
+        <v>-0.09908237733305236</v>
       </c>
       <c r="C95">
-        <v>-0.0385278678001511</v>
+        <v>0.0861377811584106</v>
       </c>
       <c r="D95">
-        <v>0.08469543081925102</v>
+        <v>0.008837025275235288</v>
       </c>
       <c r="E95">
-        <v>-0.1307056052603655</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06456610627192284</v>
+      </c>
+      <c r="F95">
+        <v>0.1874470334634757</v>
+      </c>
+      <c r="G95">
+        <v>-0.07084343849224764</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.01511321211837911</v>
+        <v>-0.1988963131506674</v>
       </c>
       <c r="C98">
-        <v>-0.1660669165797081</v>
+        <v>0.04584926569867537</v>
       </c>
       <c r="D98">
-        <v>0.1109371910272405</v>
+        <v>0.01200568736534507</v>
       </c>
       <c r="E98">
-        <v>-0.05055369594139098</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06942493027662085</v>
+      </c>
+      <c r="F98">
+        <v>0.2420344289405586</v>
+      </c>
+      <c r="G98">
+        <v>-0.02164705069208124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008348954965891548</v>
+        <v>-0.01078619827751816</v>
       </c>
       <c r="C101">
-        <v>-0.01830760332322667</v>
+        <v>0.01982576536116717</v>
       </c>
       <c r="D101">
-        <v>0.009448250111354421</v>
+        <v>-0.007656559631668944</v>
       </c>
       <c r="E101">
-        <v>0.00359794409247497</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.00446769368007936</v>
+      </c>
+      <c r="F101">
+        <v>-0.01565184249466836</v>
+      </c>
+      <c r="G101">
+        <v>0.0701447291983001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01874206392994494</v>
+        <v>-0.1186263012054173</v>
       </c>
       <c r="C102">
-        <v>-0.08167083123801613</v>
+        <v>0.08274648584116324</v>
       </c>
       <c r="D102">
-        <v>0.1248056895644367</v>
+        <v>-0.001137038614991093</v>
       </c>
       <c r="E102">
-        <v>0.0001133758966307314</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03152966170969761</v>
+      </c>
+      <c r="F102">
+        <v>-0.04174619058758847</v>
+      </c>
+      <c r="G102">
+        <v>0.003036028172016012</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001993808976025719</v>
+        <v>-0.003364066660284098</v>
       </c>
       <c r="C103">
-        <v>-0.01175386568186099</v>
+        <v>0.003181569423657941</v>
       </c>
       <c r="D103">
-        <v>0.02160063507059235</v>
+        <v>-0.0001545697355884899</v>
       </c>
       <c r="E103">
-        <v>0.01413998471028171</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.001948247182700487</v>
+      </c>
+      <c r="F103">
+        <v>-0.005293038385746435</v>
+      </c>
+      <c r="G103">
+        <v>0.01360125959967251</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9756934404605365</v>
+        <v>-0.02240072976132649</v>
       </c>
       <c r="C104">
-        <v>0.1720640791393113</v>
+        <v>-0.03391784570382774</v>
       </c>
       <c r="D104">
-        <v>-0.01348532830802705</v>
+        <v>-0.9872304902845302</v>
       </c>
       <c r="E104">
-        <v>0.04316182752307216</v>
+        <v>0.05106009284623934</v>
+      </c>
+      <c r="F104">
+        <v>-0.04099219672355551</v>
+      </c>
+      <c r="G104">
+        <v>-0.01908358804073425</v>
       </c>
     </row>
   </sheetData>
